--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43928,6 +43928,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43965,6 +43965,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44002,6 +44002,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44039,6 +44039,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44076,6 +44076,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44113,6 +44113,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44150,6 +44150,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44187,6 +44187,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44224,6 +44224,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44261,6 +44261,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44298,6 +44298,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44335,6 +44335,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44372,6 +44372,80 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44446,6 +44446,80 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44520,6 +44520,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44557,6 +44557,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44594,6 +44594,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44631,6 +44631,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44668,6 +44668,80 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44742,6 +44742,43 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44779,6 +44779,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2252"/>
+  <dimension ref="A1:I2253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80656,6 +80656,43 @@
         </is>
       </c>
     </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2253" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2253"/>
+  <dimension ref="A1:I2254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80693,6 +80693,43 @@
         </is>
       </c>
     </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2254" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2254"/>
+  <dimension ref="A1:I2255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80730,6 +80730,43 @@
         </is>
       </c>
     </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2255" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2255"/>
+  <dimension ref="A1:I2256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80767,6 +80767,43 @@
         </is>
       </c>
     </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2256" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2256" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2256" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2256"/>
+  <dimension ref="A1:I2257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80804,6 +80804,43 @@
         </is>
       </c>
     </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2257" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2257" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2257" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2257"/>
+  <dimension ref="A1:I2258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80841,6 +80841,43 @@
         </is>
       </c>
     </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2258" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2258" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2258" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2258"/>
+  <dimension ref="A1:I2259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80878,6 +80878,43 @@
         </is>
       </c>
     </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2259" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2259" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2259"/>
+  <dimension ref="A1:I2260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80915,6 +80915,43 @@
         </is>
       </c>
     </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2260" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2260" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2260"/>
+  <dimension ref="A1:I2261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80952,6 +80952,43 @@
         </is>
       </c>
     </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2261" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2261" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2261"/>
+  <dimension ref="A1:I2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80989,6 +80989,43 @@
         </is>
       </c>
     </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2262"/>
+  <dimension ref="A1:I2263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81026,6 +81026,41 @@
         </is>
       </c>
     </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2263" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2263"/>
+  <dimension ref="A1:I2264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81061,6 +81061,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2264" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2264"/>
+  <dimension ref="A1:I2265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81096,6 +81096,43 @@
         <v>500</v>
       </c>
     </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2265" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7986.xlsx
+++ b/data/7986.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2265"/>
+  <dimension ref="A1:I2266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81133,6 +81133,43 @@
         </is>
       </c>
     </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>CNASIA</t>
+        </is>
+      </c>
+      <c r="E2266" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2266" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2266" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
